--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch5/anyimplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch5/anyimplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="158">
   <si>
     <t>Shape1</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>AccumulatedDeviceOnly(us)</t>
+  </si>
+  <si>
+    <t>AccumulatedDataMoverOnly(us)</t>
   </si>
   <si>
     <t>Total(us)</t>
@@ -857,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,42 +885,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>27480.515</v>
       </c>
       <c r="F2">
-        <v>906.485</v>
+        <v>606.99</v>
       </c>
       <c r="G2">
+        <v>299.495</v>
+      </c>
+      <c r="H2">
         <v>28387</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>488.126</v>
@@ -926,21 +935,24 @@
         <v>583.874</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1072</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1030.885</v>
@@ -949,21 +961,24 @@
         <v>2384.115</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>3415</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>937.8890000000001</v>
@@ -972,21 +987,24 @@
         <v>2397.111</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>3335</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1075.957</v>
@@ -995,6 +1013,9 @@
         <v>2401.043</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>3477</v>
       </c>
     </row>
@@ -1005,13 +1026,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,188 +1051,215 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>69088.238</v>
       </c>
       <c r="F2">
-        <v>79741.762</v>
+        <v>77989.01300000001</v>
       </c>
       <c r="G2">
+        <v>1752.749</v>
+      </c>
+      <c r="H2">
         <v>148830</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>62427.97700000001</v>
       </c>
       <c r="F3">
-        <v>98624.02299999999</v>
+        <v>91912.42999999999</v>
       </c>
       <c r="G3">
+        <v>6711.593</v>
+      </c>
+      <c r="H3">
         <v>161052</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4">
         <v>20383.209</v>
       </c>
       <c r="F4">
-        <v>59870.791</v>
+        <v>59054.46</v>
       </c>
       <c r="G4">
+        <v>816.331</v>
+      </c>
+      <c r="H4">
         <v>80254</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>53832.057</v>
       </c>
       <c r="F5">
-        <v>79716.943</v>
+        <v>77971.807</v>
       </c>
       <c r="G5">
+        <v>1745.136</v>
+      </c>
+      <c r="H5">
         <v>133549</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>124593.237</v>
       </c>
       <c r="F6">
-        <v>189056.763</v>
+        <v>175814.513</v>
       </c>
       <c r="G6">
+        <v>13242.25</v>
+      </c>
+      <c r="H6">
         <v>313650</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>113455.212</v>
       </c>
       <c r="F7">
-        <v>189098.788</v>
+        <v>175852.059</v>
       </c>
       <c r="G7">
+        <v>13246.729</v>
+      </c>
+      <c r="H7">
         <v>302554</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>104832.5</v>
       </c>
       <c r="F8">
-        <v>160830.5</v>
+        <v>147531.45</v>
       </c>
       <c r="G8">
+        <v>13299.05</v>
+      </c>
+      <c r="H8">
         <v>265663</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>23121.51300000001</v>
+        <v>23121.513</v>
       </c>
       <c r="F9">
-        <v>127503.487</v>
+        <v>125647.28</v>
       </c>
       <c r="G9">
+        <v>1856.207</v>
+      </c>
+      <c r="H9">
         <v>150625</v>
       </c>
     </row>
@@ -1222,13 +1270,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,88 +1295,100 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>46207.988</v>
       </c>
       <c r="F2">
-        <v>60225.012</v>
+        <v>53531.843</v>
       </c>
       <c r="G2">
+        <v>6693.169</v>
+      </c>
+      <c r="H2">
         <v>106433</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3">
-        <v>78090.442</v>
+        <v>78090.44200000001</v>
       </c>
       <c r="F3">
-        <v>70744.558</v>
+        <v>57486.253</v>
       </c>
       <c r="G3">
+        <v>13258.305</v>
+      </c>
+      <c r="H3">
         <v>148835</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>45561.968</v>
       </c>
       <c r="F4">
-        <v>10903.032</v>
+        <v>5488.218</v>
       </c>
       <c r="G4">
+        <v>5414.814</v>
+      </c>
+      <c r="H4">
         <v>56465</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>1221.71</v>
@@ -1337,21 +1397,24 @@
         <v>229.29</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1451</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>1203.9</v>
@@ -1360,136 +1423,154 @@
         <v>220.1</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1424</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>39358.11899999999</v>
       </c>
       <c r="F7">
-        <v>60181.88100000001</v>
+        <v>53504.76100000001</v>
       </c>
       <c r="G7">
+        <v>6677.12</v>
+      </c>
+      <c r="H7">
         <v>99540</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>39165.148</v>
       </c>
       <c r="F8">
-        <v>60293.852</v>
+        <v>53518.06</v>
       </c>
       <c r="G8">
+        <v>6775.792</v>
+      </c>
+      <c r="H8">
         <v>99459</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>39178.686</v>
       </c>
       <c r="F9">
-        <v>60317.314</v>
+        <v>53508.368</v>
       </c>
       <c r="G9">
+        <v>6808.946</v>
+      </c>
+      <c r="H9">
         <v>99496</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10">
         <v>74858.19100000001</v>
       </c>
       <c r="F10">
-        <v>70964.80899999999</v>
+        <v>57559.742</v>
       </c>
       <c r="G10">
+        <v>13405.067</v>
+      </c>
+      <c r="H10">
         <v>145823</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11">
-        <v>36677.483</v>
+        <v>36677.48299999999</v>
       </c>
       <c r="F11">
-        <v>10925.517</v>
+        <v>5489.658</v>
       </c>
       <c r="G11">
+        <v>5435.859</v>
+      </c>
+      <c r="H11">
         <v>47603</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>1195.096</v>
@@ -1498,21 +1579,24 @@
         <v>212.904</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1408</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>1219.966</v>
@@ -1521,6 +1605,9 @@
         <v>226.034</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1446</v>
       </c>
     </row>
@@ -1531,13 +1618,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,88 +1643,100 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2">
-        <v>76001.321</v>
+        <v>76001.32100000001</v>
       </c>
       <c r="F2">
-        <v>120634.679</v>
+        <v>107248.097</v>
       </c>
       <c r="G2">
+        <v>13386.582</v>
+      </c>
+      <c r="H2">
         <v>196636</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3">
         <v>160377.912</v>
       </c>
       <c r="F3">
-        <v>141522.088</v>
+        <v>115015.887</v>
       </c>
       <c r="G3">
+        <v>26506.201</v>
+      </c>
+      <c r="H3">
         <v>301900</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>57409.058</v>
       </c>
       <c r="F4">
-        <v>21915.942</v>
+        <v>11164.012</v>
       </c>
       <c r="G4">
+        <v>10751.93</v>
+      </c>
+      <c r="H4">
         <v>79325</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <v>3338.932</v>
@@ -1646,21 +1745,24 @@
         <v>672.068</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>4011</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>3229.993</v>
@@ -1669,136 +1771,154 @@
         <v>653.0069999999999</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>3883</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7">
-        <v>77324.46999999999</v>
+        <v>77324.46999999997</v>
       </c>
       <c r="F7">
-        <v>120600.53</v>
+        <v>107200.634</v>
       </c>
       <c r="G7">
+        <v>13399.896</v>
+      </c>
+      <c r="H7">
         <v>197925</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8">
-        <v>74544.996</v>
+        <v>74544.99599999998</v>
       </c>
       <c r="F8">
-        <v>120732.004</v>
+        <v>107283.146</v>
       </c>
       <c r="G8">
+        <v>13448.858</v>
+      </c>
+      <c r="H8">
         <v>195277</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E9">
         <v>84309.12999999999</v>
       </c>
       <c r="F9">
-        <v>120703.87</v>
+        <v>107269.767</v>
       </c>
       <c r="G9">
+        <v>13434.103</v>
+      </c>
+      <c r="H9">
         <v>205013</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10">
         <v>149796.407</v>
       </c>
       <c r="F10">
-        <v>141431.593</v>
+        <v>114888.87</v>
       </c>
       <c r="G10">
+        <v>26542.723</v>
+      </c>
+      <c r="H10">
         <v>291228</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>64466.20699999999</v>
       </c>
       <c r="F11">
-        <v>22037.793</v>
+        <v>11231.182</v>
       </c>
       <c r="G11">
+        <v>10806.611</v>
+      </c>
+      <c r="H11">
         <v>86504</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12">
         <v>3420.298</v>
@@ -1807,21 +1927,24 @@
         <v>683.7020000000001</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>4104</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>3296.622</v>
@@ -1830,6 +1953,9 @@
         <v>615.378</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>3912</v>
       </c>
     </row>
@@ -1840,13 +1966,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,19 +1991,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2">
         <v>628.708</v>
@@ -1886,21 +2015,24 @@
         <v>148.292</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>777</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <v>3294.82</v>
@@ -1909,21 +2041,24 @@
         <v>115.18</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>3410</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>11589.619</v>
@@ -1932,21 +2067,24 @@
         <v>118.381</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>11708</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <v>4908.652</v>
@@ -1955,21 +2093,24 @@
         <v>101.348</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>5010</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>454.545</v>
@@ -1978,21 +2119,24 @@
         <v>98.455</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>458.293</v>
@@ -2001,21 +2145,24 @@
         <v>98.70699999999999</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>557</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8">
         <v>636.688</v>
@@ -2024,21 +2171,24 @@
         <v>110.312</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>747</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>550.05</v>
@@ -2047,21 +2197,24 @@
         <v>94.95</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>605.8679999999999</v>
@@ -2070,21 +2223,24 @@
         <v>92.13200000000001</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>698</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>9707.991</v>
@@ -2093,21 +2249,24 @@
         <v>113.009</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>9821</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>4494.758</v>
@@ -2116,21 +2275,24 @@
         <v>107.242</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>4602</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13">
         <v>543.9300000000001</v>
@@ -2139,6 +2301,9 @@
         <v>104.07</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>648</v>
       </c>
     </row>
@@ -2149,13 +2314,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,19 +2339,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2">
         <v>13133.424</v>
@@ -2195,21 +2363,24 @@
         <v>3622.576</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>16756</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>25015.711</v>
@@ -2218,21 +2389,24 @@
         <v>7143.289</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>32159</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>10550.449</v>
@@ -2241,21 +2415,24 @@
         <v>2914.551</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>13465</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>494.638</v>
@@ -2264,21 +2441,24 @@
         <v>101.362</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>419.819</v>
@@ -2287,21 +2467,24 @@
         <v>107.181</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>12918.248</v>
@@ -2310,21 +2493,24 @@
         <v>3664.752</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>16583</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8">
         <v>12574.563</v>
@@ -2333,21 +2519,24 @@
         <v>3593.437</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>16168</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9">
         <v>12590.336</v>
@@ -2356,21 +2545,24 @@
         <v>3624.664</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>16215</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10">
         <v>31687.923</v>
@@ -2379,21 +2571,24 @@
         <v>7103.077</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>38791</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>10437.597</v>
@@ -2402,21 +2597,24 @@
         <v>2926.403</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>13364</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12">
         <v>509.341</v>
@@ -2425,21 +2623,24 @@
         <v>101.659</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>611</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13">
         <v>432.626</v>
@@ -2448,6 +2649,9 @@
         <v>100.374</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>533</v>
       </c>
     </row>
@@ -2458,13 +2662,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2483,19 +2687,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>1773.616999999998</v>
@@ -2504,21 +2711,24 @@
         <v>64073.383</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>65847</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>633.2540000000008</v>
@@ -2527,21 +2737,24 @@
         <v>10119.746</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>10753</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>1224.410000000003</v>
@@ -2550,21 +2763,24 @@
         <v>54105.59</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>55330</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>1171.241999999998</v>
@@ -2573,21 +2789,24 @@
         <v>54172.758</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>55344</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>1125.934000000001</v>
@@ -2596,21 +2815,24 @@
         <v>54121.066</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>55247</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>1781.902000000002</v>
@@ -2619,21 +2841,24 @@
         <v>64038.098</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>65820</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>624.5239999999994</v>
@@ -2642,6 +2867,9 @@
         <v>10108.476</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>10733</v>
       </c>
     </row>
@@ -2660,10 +2888,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2672,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2680,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>31013.372</v>
+        <v>31312.867</v>
       </c>
       <c r="E2">
-        <v>8672.627999999999</v>
+        <v>8373.133</v>
       </c>
       <c r="F2">
         <v>39686</v>
@@ -2700,16 +2928,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>84459.88700000002</v>
+        <v>85047.75900000002</v>
       </c>
       <c r="E3">
-        <v>435129.113</v>
+        <v>434541.241</v>
       </c>
       <c r="F3">
         <v>519589</v>
@@ -2720,16 +2948,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>159</v>
       </c>
       <c r="D4">
-        <v>1138670.8545</v>
+        <v>1202943.3585</v>
       </c>
       <c r="E4">
-        <v>1221800.1455</v>
+        <v>1157527.6415</v>
       </c>
       <c r="F4">
         <v>2360471</v>
@@ -2740,16 +2968,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>26882.56</v>
+        <v>27079.433</v>
       </c>
       <c r="E5">
-        <v>1358.44</v>
+        <v>1161.567</v>
       </c>
       <c r="F5">
         <v>28241</v>
@@ -2760,7 +2988,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2780,16 +3008,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>169137.398</v>
+        <v>169329.873</v>
       </c>
       <c r="E7">
-        <v>138132.602</v>
+        <v>137940.127</v>
       </c>
       <c r="F7">
         <v>307270</v>
@@ -2800,16 +3028,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>171716.3589999999</v>
+        <v>198609.96</v>
       </c>
       <c r="E8">
-        <v>683958.6410000001</v>
+        <v>657065.04</v>
       </c>
       <c r="F8">
         <v>855675</v>
@@ -2820,16 +3048,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>71410.375</v>
+        <v>72940.796</v>
       </c>
       <c r="E9">
-        <v>98181.625</v>
+        <v>96651.204</v>
       </c>
       <c r="F9">
         <v>169592</v>
@@ -2840,7 +3068,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2860,16 +3088,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>571733.943</v>
+        <v>624403.9879999999</v>
       </c>
       <c r="E11">
-        <v>984443.057</v>
+        <v>931773.0120000001</v>
       </c>
       <c r="F11">
         <v>1556177</v>
@@ -2880,16 +3108,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>403938.697</v>
+        <v>468407.769</v>
       </c>
       <c r="E12">
-        <v>405444.303</v>
+        <v>340975.231</v>
       </c>
       <c r="F12">
         <v>809383</v>
@@ -2900,16 +3128,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>757515.3459999999</v>
+        <v>885792.2499999999</v>
       </c>
       <c r="E13">
-        <v>812202.654</v>
+        <v>683925.7500000001</v>
       </c>
       <c r="F13">
         <v>1569718</v>
@@ -2920,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2940,7 +3168,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -2960,7 +3188,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2982,13 +3210,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3007,42 +3235,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>23723.095</v>
       </c>
       <c r="F2">
-        <v>11138.905</v>
+        <v>10947.074</v>
       </c>
       <c r="G2">
+        <v>191.831</v>
+      </c>
+      <c r="H2">
         <v>34862</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2801.451</v>
@@ -3051,21 +3285,24 @@
         <v>2772.549</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>5574</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>602.0519999999999</v>
@@ -3074,67 +3311,76 @@
         <v>1299.948</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1902</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2343.448</v>
       </c>
       <c r="F5">
-        <v>722.552</v>
+        <v>613.5890000000001</v>
       </c>
       <c r="G5">
+        <v>108.963</v>
+      </c>
+      <c r="H5">
         <v>3066</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>4655.121</v>
+        <v>4655.120999999999</v>
       </c>
       <c r="F6">
-        <v>6084.879</v>
+        <v>5797.801</v>
       </c>
       <c r="G6">
+        <v>287.078</v>
+      </c>
+      <c r="H6">
         <v>10740</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>10217.398</v>
@@ -3143,21 +3389,24 @@
         <v>10927.602</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>21145</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>12171.31</v>
@@ -3166,21 +3415,24 @@
         <v>132470.69</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>144642</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>12093.95000000001</v>
@@ -3189,21 +3441,24 @@
         <v>132482.05</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>144576</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>12319.94</v>
@@ -3212,21 +3467,24 @@
         <v>132536.06</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>144856</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2522.394</v>
@@ -3235,21 +3493,24 @@
         <v>2771.606</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>5294</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>517.5150000000001</v>
@@ -3258,21 +3519,24 @@
         <v>1301.485</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1819</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>492.213</v>
@@ -3281,6 +3545,9 @@
         <v>620.787</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1113</v>
       </c>
     </row>
@@ -3291,13 +3558,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3316,19 +3583,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>21595.209</v>
@@ -3337,21 +3607,24 @@
         <v>8460.790999999999</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>30056</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>10547.611</v>
@@ -3360,21 +3633,24 @@
         <v>9007.388999999999</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>19555</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>10464.528</v>
@@ -3383,21 +3659,24 @@
         <v>9003.472</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>19468</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>7564.231</v>
@@ -3406,21 +3685,24 @@
         <v>7785.769</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>15350</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>482.079</v>
@@ -3429,21 +3711,24 @@
         <v>116.921</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>599</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>651.264</v>
@@ -3452,21 +3737,24 @@
         <v>117.736</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>769</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>505.648</v>
@@ -3475,21 +3763,24 @@
         <v>111.352</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>664.855</v>
@@ -3498,21 +3789,24 @@
         <v>115.145</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>493.526</v>
@@ -3521,21 +3815,24 @@
         <v>110.474</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>535.249</v>
@@ -3544,44 +3841,50 @@
         <v>116.751</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>652</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>51550.126</v>
       </c>
       <c r="F12">
-        <v>32717.874</v>
+        <v>26034.344</v>
       </c>
       <c r="G12">
+        <v>6683.53</v>
+      </c>
+      <c r="H12">
         <v>84268</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>721.881</v>
@@ -3590,21 +3893,24 @@
         <v>113.119</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>835</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>13116.607</v>
@@ -3613,21 +3919,24 @@
         <v>25912.393</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>39029</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>12981.555</v>
@@ -3636,21 +3945,24 @@
         <v>25918.445</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>38900</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>13057.531</v>
@@ -3659,21 +3971,24 @@
         <v>25910.469</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>38968</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>576.963</v>
@@ -3682,21 +3997,24 @@
         <v>122.037</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>699</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>716.817</v>
@@ -3705,21 +4023,24 @@
         <v>136.183</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>853</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>559.63</v>
@@ -3728,21 +4049,24 @@
         <v>116.37</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>676</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>651.107</v>
@@ -3751,21 +4075,24 @@
         <v>106.893</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>758</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>535.664</v>
@@ -3774,21 +4101,24 @@
         <v>113.336</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>649</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>503.66</v>
@@ -3797,44 +4127,50 @@
         <v>111.34</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>615</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23">
-        <v>99182.848</v>
+        <v>99182.84800000001</v>
       </c>
       <c r="F23">
-        <v>66704.152</v>
+        <v>53470.96</v>
       </c>
       <c r="G23">
+        <v>13233.192</v>
+      </c>
+      <c r="H23">
         <v>165887</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>726.693</v>
@@ -3843,21 +4179,24 @@
         <v>119.307</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>846</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>24953.37</v>
@@ -3866,21 +4205,24 @@
         <v>53420.63</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>78374</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>25241.84</v>
@@ -3889,21 +4231,24 @@
         <v>53416.16</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>78658</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <v>25194.55</v>
@@ -3912,21 +4257,24 @@
         <v>53428.45</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>78623</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>526.426</v>
@@ -3935,21 +4283,24 @@
         <v>121.574</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>648.295</v>
@@ -3958,21 +4309,24 @@
         <v>110.705</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>759</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>490.407</v>
@@ -3981,21 +4335,24 @@
         <v>118.593</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>609</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>702.01</v>
@@ -4004,21 +4361,24 @@
         <v>124.99</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>827</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>568.38</v>
@@ -4027,21 +4387,24 @@
         <v>121.62</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>690</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>527.1659999999999</v>
@@ -4050,44 +4413,50 @@
         <v>111.834</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>639</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <v>35952.493</v>
       </c>
       <c r="F34">
-        <v>14362.507</v>
+        <v>8995.146000000001</v>
       </c>
       <c r="G34">
+        <v>5367.361</v>
+      </c>
+      <c r="H34">
         <v>50315</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>675.948</v>
@@ -4096,21 +4465,24 @@
         <v>116.052</v>
       </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>792</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>10140.776</v>
@@ -4119,21 +4491,24 @@
         <v>9003.224</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>19144</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>10183.236</v>
@@ -4142,21 +4517,24 @@
         <v>9000.763999999999</v>
       </c>
       <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>19184</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>10318.777</v>
@@ -4165,21 +4543,24 @@
         <v>8999.223</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>19318</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39">
         <v>2513.145</v>
@@ -4188,21 +4569,24 @@
         <v>124.855</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>2638</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <v>508.561</v>
@@ -4211,21 +4595,24 @@
         <v>105.439</v>
       </c>
       <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>614</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>651.116</v>
@@ -4234,21 +4621,24 @@
         <v>108.884</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>760</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>506.097</v>
@@ -4257,21 +4647,24 @@
         <v>117.903</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>624</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>645.843</v>
@@ -4280,21 +4673,24 @@
         <v>111.157</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>757</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44">
         <v>498.99</v>
@@ -4303,21 +4699,24 @@
         <v>109.01</v>
       </c>
       <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>608</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E45">
         <v>480.023</v>
@@ -4326,21 +4725,24 @@
         <v>112.977</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46">
         <v>461.527</v>
@@ -4349,21 +4751,24 @@
         <v>122.473</v>
       </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>584</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47">
         <v>649.029</v>
@@ -4372,21 +4777,24 @@
         <v>114.971</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>764</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E48">
         <v>469.566</v>
@@ -4395,21 +4803,24 @@
         <v>108.434</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>578</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49">
         <v>535.634</v>
@@ -4418,21 +4829,24 @@
         <v>108.366</v>
       </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>644</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E50">
         <v>483.073</v>
@@ -4441,21 +4855,24 @@
         <v>112.927</v>
       </c>
       <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>596</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51">
         <v>492.28</v>
@@ -4464,21 +4881,24 @@
         <v>114.72</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>607</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52">
         <v>537.511</v>
@@ -4487,21 +4907,24 @@
         <v>109.489</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>647</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53">
         <v>612.51</v>
@@ -4510,21 +4933,24 @@
         <v>112.49</v>
       </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>725</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>504.687</v>
@@ -4533,21 +4959,24 @@
         <v>105.313</v>
       </c>
       <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>610</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55">
         <v>675.521</v>
@@ -4556,21 +4985,24 @@
         <v>112.479</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>788</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E56">
         <v>479.466</v>
@@ -4579,21 +5011,24 @@
         <v>104.534</v>
       </c>
       <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57">
         <v>526.535</v>
@@ -4602,21 +5037,24 @@
         <v>105.465</v>
       </c>
       <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58">
         <v>478.882</v>
@@ -4625,21 +5063,24 @@
         <v>110.118</v>
       </c>
       <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>589</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59">
         <v>646.215</v>
@@ -4648,21 +5089,24 @@
         <v>105.785</v>
       </c>
       <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>752</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E60">
         <v>513.729</v>
@@ -4671,21 +5115,24 @@
         <v>117.271</v>
       </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>631</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E61">
         <v>489.65</v>
@@ -4694,21 +5141,24 @@
         <v>109.35</v>
       </c>
       <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>599</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E62">
         <v>476.104</v>
@@ -4717,44 +5167,50 @@
         <v>106.896</v>
       </c>
       <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>583</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E63">
         <v>4022.847</v>
       </c>
       <c r="F63">
-        <v>326.153</v>
+        <v>114.956</v>
       </c>
       <c r="G63">
+        <v>211.197</v>
+      </c>
+      <c r="H63">
         <v>4349</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
         <v>39</v>
       </c>
-      <c r="C64" t="s">
-        <v>38</v>
-      </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E64">
         <v>568.704</v>
@@ -4763,21 +5219,24 @@
         <v>108.296</v>
       </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>677</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E65">
         <v>10590.516</v>
@@ -4786,21 +5245,24 @@
         <v>8434.484</v>
       </c>
       <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>19025</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66">
         <v>10399.243</v>
@@ -4809,21 +5271,24 @@
         <v>8996.757</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>19396</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E67">
         <v>10412.307</v>
@@ -4832,21 +5297,24 @@
         <v>8997.692999999999</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>19410</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E68">
         <v>7306.591</v>
@@ -4855,21 +5323,24 @@
         <v>7774.409</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>15081</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E69">
         <v>499.653</v>
@@ -4878,21 +5349,24 @@
         <v>114.347</v>
       </c>
       <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
         <v>614</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E70">
         <v>639.436</v>
@@ -4901,21 +5375,24 @@
         <v>107.564</v>
       </c>
       <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
         <v>747</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E71">
         <v>519.682</v>
@@ -4924,21 +5401,24 @@
         <v>112.318</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>632</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E72">
         <v>642.052</v>
@@ -4947,21 +5427,24 @@
         <v>103.948</v>
       </c>
       <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>746</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E73">
         <v>454.554</v>
@@ -4970,21 +5453,24 @@
         <v>104.446</v>
       </c>
       <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
         <v>559</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E74">
         <v>531.611</v>
@@ -4993,44 +5479,50 @@
         <v>101.389</v>
       </c>
       <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>633</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="C75" t="s">
-        <v>30</v>
-      </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>42632.458</v>
       </c>
       <c r="F75">
-        <v>32686.542</v>
+        <v>26012.424</v>
       </c>
       <c r="G75">
+        <v>6674.118</v>
+      </c>
+      <c r="H75">
         <v>75319</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E76">
         <v>699.84</v>
@@ -5039,21 +5531,24 @@
         <v>109.16</v>
       </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>809</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
         <v>31</v>
       </c>
-      <c r="C77" t="s">
-        <v>30</v>
-      </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E77">
         <v>11751.293</v>
@@ -5062,21 +5557,24 @@
         <v>25911.707</v>
       </c>
       <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
         <v>37663</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
         <v>31</v>
       </c>
-      <c r="C78" t="s">
-        <v>30</v>
-      </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E78">
         <v>12587.703</v>
@@ -5085,21 +5583,24 @@
         <v>25906.297</v>
       </c>
       <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
         <v>38494</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
         <v>31</v>
       </c>
-      <c r="C79" t="s">
-        <v>30</v>
-      </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E79">
         <v>12628.898</v>
@@ -5108,21 +5609,24 @@
         <v>25902.102</v>
       </c>
       <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
         <v>38531</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E80">
         <v>12560.879</v>
@@ -5131,21 +5635,24 @@
         <v>8489.120999999999</v>
       </c>
       <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>21050</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E81">
         <v>10329.301</v>
@@ -5154,21 +5661,24 @@
         <v>9030.699000000001</v>
       </c>
       <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>19360</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E82">
         <v>10372.504</v>
@@ -5177,21 +5687,24 @@
         <v>9024.495999999999</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
         <v>19397</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E83">
         <v>16399.336</v>
@@ -5200,21 +5713,24 @@
         <v>27636.664</v>
       </c>
       <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
         <v>44036</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E84">
         <v>518.4739999999999</v>
@@ -5223,21 +5739,24 @@
         <v>154.526</v>
       </c>
       <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
         <v>673</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E85">
         <v>662.796</v>
@@ -5246,21 +5765,24 @@
         <v>112.204</v>
       </c>
       <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>775</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E86">
         <v>485.562</v>
@@ -5269,21 +5791,24 @@
         <v>104.438</v>
       </c>
       <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>590</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E87">
         <v>571.518</v>
@@ -5292,21 +5817,24 @@
         <v>97.482</v>
       </c>
       <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>669</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E88">
         <v>491.864</v>
@@ -5315,21 +5843,24 @@
         <v>97.136</v>
       </c>
       <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
         <v>589</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E89">
         <v>564.474</v>
@@ -5338,44 +5869,50 @@
         <v>115.526</v>
       </c>
       <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>680</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
         <v>31</v>
       </c>
-      <c r="C90" t="s">
-        <v>30</v>
-      </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>49879.36</v>
       </c>
       <c r="F90">
-        <v>32726.64</v>
+        <v>26031.633</v>
       </c>
       <c r="G90">
+        <v>6695.007</v>
+      </c>
+      <c r="H90">
         <v>82606</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E91">
         <v>677.478</v>
@@ -5384,21 +5921,24 @@
         <v>112.522</v>
       </c>
       <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>790</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
         <v>31</v>
       </c>
-      <c r="C92" t="s">
-        <v>30</v>
-      </c>
       <c r="D92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E92">
         <v>12845.697</v>
@@ -5407,21 +5947,24 @@
         <v>25955.303</v>
       </c>
       <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
         <v>38801</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
         <v>31</v>
       </c>
-      <c r="C93" t="s">
-        <v>30</v>
-      </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E93">
         <v>12572.16</v>
@@ -5430,21 +5973,24 @@
         <v>25900.84</v>
       </c>
       <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>38473</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" t="s">
         <v>31</v>
       </c>
-      <c r="C94" t="s">
-        <v>30</v>
-      </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E94">
         <v>12712.305</v>
@@ -5453,21 +5999,24 @@
         <v>25946.695</v>
       </c>
       <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
         <v>38659</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E95">
         <v>18873.505</v>
@@ -5476,21 +6025,24 @@
         <v>8440.495000000001</v>
       </c>
       <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>27314</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E96">
         <v>10314.337</v>
@@ -5499,21 +6051,24 @@
         <v>9046.663</v>
       </c>
       <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
         <v>19361</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E97">
         <v>10265.807</v>
@@ -5522,21 +6077,24 @@
         <v>9064.192999999999</v>
       </c>
       <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>19330</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E98">
         <v>16374.197</v>
@@ -5545,21 +6103,24 @@
         <v>27673.803</v>
       </c>
       <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
         <v>44048</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E99">
         <v>501.034</v>
@@ -5568,21 +6129,24 @@
         <v>109.966</v>
       </c>
       <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
         <v>611</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E100">
         <v>604.521</v>
@@ -5591,21 +6155,24 @@
         <v>106.479</v>
       </c>
       <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <v>711</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E101">
         <v>491.614</v>
@@ -5614,21 +6181,24 @@
         <v>108.386</v>
       </c>
       <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E102">
         <v>615.03</v>
@@ -5637,21 +6207,24 @@
         <v>102.97</v>
       </c>
       <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
         <v>718</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E103">
         <v>513.2</v>
@@ -5660,21 +6233,24 @@
         <v>107.8</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
         <v>621</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E104">
         <v>525.8050000000001</v>
@@ -5683,44 +6259,50 @@
         <v>113.195</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>639</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" t="s">
         <v>31</v>
       </c>
-      <c r="C105" t="s">
-        <v>30</v>
-      </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E105">
         <v>50492.051</v>
       </c>
       <c r="F105">
-        <v>32761.949</v>
+        <v>26024.8</v>
       </c>
       <c r="G105">
+        <v>6737.149</v>
+      </c>
+      <c r="H105">
         <v>83254</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E106">
         <v>747.029</v>
@@ -5729,21 +6311,24 @@
         <v>112.971</v>
       </c>
       <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
         <v>860</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
         <v>31</v>
       </c>
-      <c r="C107" t="s">
-        <v>30</v>
-      </c>
       <c r="D107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E107">
         <v>12635.213</v>
@@ -5752,21 +6337,24 @@
         <v>25901.787</v>
       </c>
       <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
         <v>38537</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s">
         <v>31</v>
       </c>
-      <c r="C108" t="s">
-        <v>30</v>
-      </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E108">
         <v>12662.855</v>
@@ -5775,21 +6363,24 @@
         <v>25901.145</v>
       </c>
       <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
         <v>38564</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
         <v>31</v>
       </c>
-      <c r="C109" t="s">
-        <v>30</v>
-      </c>
       <c r="D109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E109">
         <v>12628.023</v>
@@ -5798,21 +6389,24 @@
         <v>25905.977</v>
       </c>
       <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
         <v>38534</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E110">
         <v>12383.901</v>
@@ -5821,21 +6415,24 @@
         <v>8445.099</v>
       </c>
       <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>20829</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E111">
         <v>10316.721</v>
@@ -5844,21 +6441,24 @@
         <v>9004.279</v>
       </c>
       <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
         <v>19321</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E112">
         <v>10421.917</v>
@@ -5867,21 +6467,24 @@
         <v>8993.083000000001</v>
       </c>
       <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
         <v>19415</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E113">
         <v>16269.707</v>
@@ -5890,21 +6493,24 @@
         <v>27630.293</v>
       </c>
       <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
         <v>43900</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E114">
         <v>629.771</v>
@@ -5913,21 +6519,24 @@
         <v>111.229</v>
       </c>
       <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
         <v>741</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E115">
         <v>602.8050000000001</v>
@@ -5936,21 +6545,24 @@
         <v>111.195</v>
       </c>
       <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
         <v>714</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E116">
         <v>503.427</v>
@@ -5959,21 +6571,24 @@
         <v>107.573</v>
       </c>
       <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
         <v>611</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E117">
         <v>655.866</v>
@@ -5982,21 +6597,24 @@
         <v>113.134</v>
       </c>
       <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
         <v>769</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E118">
         <v>491.716</v>
@@ -6005,21 +6623,24 @@
         <v>108.284</v>
       </c>
       <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
         <v>600</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E119">
         <v>468.201</v>
@@ -6028,44 +6649,50 @@
         <v>102.799</v>
       </c>
       <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
         <v>571</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" t="s">
         <v>33</v>
       </c>
-      <c r="C120" t="s">
-        <v>32</v>
-      </c>
       <c r="D120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E120">
         <v>97568.56599999999</v>
       </c>
       <c r="F120">
-        <v>66731.43400000001</v>
+        <v>53432.137</v>
       </c>
       <c r="G120">
+        <v>13299.297</v>
+      </c>
+      <c r="H120">
         <v>164300</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E121">
         <v>698.794</v>
@@ -6074,21 +6701,24 @@
         <v>117.206</v>
       </c>
       <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
         <v>816</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" t="s">
         <v>33</v>
       </c>
-      <c r="C122" t="s">
-        <v>32</v>
-      </c>
       <c r="D122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E122">
         <v>24953.434</v>
@@ -6097,21 +6727,24 @@
         <v>53464.566</v>
       </c>
       <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
         <v>78418</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
         <v>33</v>
       </c>
-      <c r="C123" t="s">
-        <v>32</v>
-      </c>
       <c r="D123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E123">
         <v>24973.613</v>
@@ -6120,21 +6753,24 @@
         <v>53406.387</v>
       </c>
       <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
         <v>78380</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
         <v>33</v>
       </c>
-      <c r="C124" t="s">
-        <v>32</v>
-      </c>
       <c r="D124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E124">
         <v>24819.8125</v>
@@ -6143,21 +6779,24 @@
         <v>53466.1875</v>
       </c>
       <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
         <v>78286</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E125">
         <v>577.908</v>
@@ -6166,21 +6805,24 @@
         <v>116.092</v>
       </c>
       <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
         <v>694</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E126">
         <v>644.277</v>
@@ -6189,21 +6831,24 @@
         <v>107.723</v>
       </c>
       <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
         <v>752</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E127">
         <v>508.649</v>
@@ -6212,21 +6857,24 @@
         <v>112.351</v>
       </c>
       <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
         <v>621</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E128">
         <v>641.284</v>
@@ -6235,21 +6883,24 @@
         <v>111.716</v>
       </c>
       <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
         <v>753</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E129">
         <v>466.069</v>
@@ -6258,21 +6909,24 @@
         <v>120.931</v>
       </c>
       <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
         <v>587</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E130">
         <v>516.7570000000001</v>
@@ -6281,44 +6935,50 @@
         <v>106.243</v>
       </c>
       <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
         <v>623</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" t="s">
         <v>35</v>
       </c>
-      <c r="C131" t="s">
-        <v>34</v>
-      </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E131">
         <v>36925.442</v>
       </c>
       <c r="F131">
-        <v>14366.558</v>
+        <v>8994.905000000001</v>
       </c>
       <c r="G131">
+        <v>5371.653</v>
+      </c>
+      <c r="H131">
         <v>51292</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E132">
         <v>698.386</v>
@@ -6327,21 +6987,24 @@
         <v>121.614</v>
       </c>
       <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
         <v>820</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
         <v>35</v>
       </c>
-      <c r="C133" t="s">
-        <v>34</v>
-      </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E133">
         <v>9904.241</v>
@@ -6350,21 +7013,24 @@
         <v>8999.759</v>
       </c>
       <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
         <v>18904</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" t="s">
         <v>35</v>
       </c>
-      <c r="C134" t="s">
-        <v>34</v>
-      </c>
       <c r="D134" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E134">
         <v>10130.559</v>
@@ -6373,21 +7039,24 @@
         <v>8996.441000000001</v>
       </c>
       <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
         <v>19127</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" t="s">
         <v>35</v>
       </c>
-      <c r="C135" t="s">
-        <v>34</v>
-      </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E135">
         <v>10319.678</v>
@@ -6396,21 +7065,24 @@
         <v>9006.322</v>
       </c>
       <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
         <v>19326</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E136">
         <v>2508.458</v>
@@ -6419,21 +7091,24 @@
         <v>118.542</v>
       </c>
       <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
         <v>2627</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E137">
         <v>500.433</v>
@@ -6442,21 +7117,24 @@
         <v>108.567</v>
       </c>
       <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
         <v>609</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E138">
         <v>675.3199999999999</v>
@@ -6465,21 +7143,24 @@
         <v>110.68</v>
       </c>
       <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
         <v>786</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D139" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E139">
         <v>470.037</v>
@@ -6488,21 +7169,24 @@
         <v>131.963</v>
       </c>
       <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
         <v>602</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E140">
         <v>648.633</v>
@@ -6511,21 +7195,24 @@
         <v>99.367</v>
       </c>
       <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
         <v>748</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E141">
         <v>460.19</v>
@@ -6534,21 +7221,24 @@
         <v>97.81</v>
       </c>
       <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
         <v>558</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D142" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E142">
         <v>477.096</v>
@@ -6557,21 +7247,24 @@
         <v>105.904</v>
       </c>
       <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
         <v>583</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E143">
         <v>517.962</v>
@@ -6580,21 +7273,24 @@
         <v>114.038</v>
       </c>
       <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
         <v>632</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E144">
         <v>685.2909999999999</v>
@@ -6603,21 +7299,24 @@
         <v>106.709</v>
       </c>
       <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
         <v>792</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D145" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E145">
         <v>517.979</v>
@@ -6626,21 +7325,24 @@
         <v>113.021</v>
       </c>
       <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
         <v>631</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E146">
         <v>498.78</v>
@@ -6649,21 +7351,24 @@
         <v>107.22</v>
       </c>
       <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
         <v>606</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E147">
         <v>523.705</v>
@@ -6672,21 +7377,24 @@
         <v>114.295</v>
       </c>
       <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
         <v>638</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D148" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E148">
         <v>502.261</v>
@@ -6695,21 +7403,24 @@
         <v>116.739</v>
       </c>
       <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
         <v>619</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E149">
         <v>480.514</v>
@@ -6718,21 +7429,24 @@
         <v>108.486</v>
       </c>
       <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
         <v>589</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E150">
         <v>595.096</v>
@@ -6741,21 +7455,24 @@
         <v>99.904</v>
       </c>
       <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
         <v>695</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E151">
         <v>496.353</v>
@@ -6764,21 +7481,24 @@
         <v>106.647</v>
       </c>
       <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
         <v>603</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E152">
         <v>674.455</v>
@@ -6787,21 +7507,24 @@
         <v>111.545</v>
       </c>
       <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
         <v>786</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E153">
         <v>518.7190000000001</v>
@@ -6810,21 +7533,24 @@
         <v>121.281</v>
       </c>
       <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
         <v>640</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E154">
         <v>446.556</v>
@@ -6833,21 +7559,24 @@
         <v>107.444</v>
       </c>
       <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
         <v>554</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E155">
         <v>461.623</v>
@@ -6856,21 +7585,24 @@
         <v>115.377</v>
       </c>
       <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
         <v>577</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E156">
         <v>680.3050000000001</v>
@@ -6879,21 +7611,24 @@
         <v>109.695</v>
       </c>
       <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
         <v>790</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E157">
         <v>542.476</v>
@@ -6902,21 +7637,24 @@
         <v>117.524</v>
       </c>
       <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
         <v>660</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D158" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E158">
         <v>546.639</v>
@@ -6925,21 +7663,24 @@
         <v>126.361</v>
       </c>
       <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
         <v>673</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E159">
         <v>487.577</v>
@@ -6948,21 +7689,24 @@
         <v>112.423</v>
       </c>
       <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
         <v>600</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E160">
         <v>542.928</v>
@@ -6971,6 +7715,9 @@
         <v>105.072</v>
       </c>
       <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
         <v>648</v>
       </c>
     </row>
@@ -6981,13 +7728,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7006,42 +7753,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>15773.989</v>
       </c>
       <c r="F2">
-        <v>354.011</v>
+        <v>157.138</v>
       </c>
       <c r="G2">
+        <v>196.873</v>
+      </c>
+      <c r="H2">
         <v>16128</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>648.5840000000001</v>
@@ -7050,21 +7803,24 @@
         <v>178.416</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>827</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>3806.844</v>
@@ -7073,21 +7829,24 @@
         <v>273.156</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>4080</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>3361.496</v>
@@ -7096,21 +7855,24 @@
         <v>278.504</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>3640</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>3291.647</v>
@@ -7119,6 +7881,9 @@
         <v>274.353</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>3566</v>
       </c>
     </row>
@@ -7129,13 +7894,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7154,19 +7919,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>13316.83</v>
@@ -7175,21 +7943,24 @@
         <v>295.17</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>13612</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>548.578</v>
@@ -7198,21 +7969,24 @@
         <v>261.422</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>810</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>2766.925</v>
@@ -7221,21 +7995,24 @@
         <v>1275.075</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>4042</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>2749.889</v>
@@ -7244,21 +8021,24 @@
         <v>1287.111</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>4037</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>2790.647</v>
@@ -7267,6 +8047,9 @@
         <v>1278.353</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>4069</v>
       </c>
     </row>
@@ -7277,13 +8060,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7302,19 +8085,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>22237.347</v>
@@ -7323,21 +8109,24 @@
         <v>4574.653</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>26812</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>10408.766</v>
@@ -7346,44 +8135,50 @@
         <v>4562.234</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>14971</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>7669.287</v>
       </c>
       <c r="F4">
-        <v>12345.713</v>
+        <v>12153.238</v>
       </c>
       <c r="G4">
+        <v>192.475</v>
+      </c>
+      <c r="H4">
         <v>20015</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>10366.51</v>
@@ -7392,21 +8187,24 @@
         <v>4546.49</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>14913</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>10332.13</v>
@@ -7415,21 +8213,24 @@
         <v>4556.87</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>14889</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>5185.447</v>
@@ -7438,21 +8239,24 @@
         <v>12141.553</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>17327</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>9870.042000000001</v>
@@ -7461,21 +8265,24 @@
         <v>4559.958</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>14430</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>10054.302</v>
@@ -7484,21 +8291,24 @@
         <v>4597.698</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>14652</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>14385.389</v>
@@ -7507,21 +8317,24 @@
         <v>22637.611</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>37023</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <v>9986.612000000001</v>
@@ -7530,21 +8343,24 @@
         <v>4630.388</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>14617</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>10206.298</v>
@@ -7553,21 +8369,24 @@
         <v>4604.702</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>14811</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>14260.037</v>
@@ -7576,21 +8395,24 @@
         <v>22611.963</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>36872</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>9990.58</v>
@@ -7599,21 +8421,24 @@
         <v>4603.42</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>14594</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>10154.116</v>
@@ -7622,21 +8447,24 @@
         <v>4556.884</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>14711</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>14030.535</v>
@@ -7645,6 +8473,9 @@
         <v>22602.465</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>36633</v>
       </c>
     </row>
@@ -7655,13 +8486,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7680,119 +8511,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>45593.05799999999</v>
       </c>
       <c r="F2">
-        <v>136767.942</v>
+        <v>131352.64</v>
       </c>
       <c r="G2">
+        <v>5415.302</v>
+      </c>
+      <c r="H2">
         <v>182361</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>32015.299</v>
+        <v>32015.29900000001</v>
       </c>
       <c r="F3">
-        <v>136745.701</v>
+        <v>131373.52</v>
       </c>
       <c r="G3">
+        <v>5372.181</v>
+      </c>
+      <c r="H3">
         <v>168761</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>31164.54999999999</v>
       </c>
       <c r="F4">
-        <v>136794.45</v>
+        <v>131426.23</v>
       </c>
       <c r="G4">
+        <v>5368.22</v>
+      </c>
+      <c r="H4">
         <v>167959</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>31415.23299999998</v>
+        <v>31415.23299999999</v>
       </c>
       <c r="F5">
-        <v>136812.767</v>
+        <v>131439.45</v>
       </c>
       <c r="G5">
+        <v>5373.317</v>
+      </c>
+      <c r="H5">
         <v>168228</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>31528.21899999998</v>
+        <v>31528.21899999999</v>
       </c>
       <c r="F6">
-        <v>136837.781</v>
+        <v>131473.2</v>
       </c>
       <c r="G6">
+        <v>5364.581</v>
+      </c>
+      <c r="H6">
         <v>168366</v>
       </c>
     </row>
@@ -7803,13 +8652,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7828,119 +8677,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>19722.92</v>
       </c>
       <c r="F2">
-        <v>7425.08</v>
+        <v>6974.172</v>
       </c>
       <c r="G2">
+        <v>450.908</v>
+      </c>
+      <c r="H2">
         <v>27148</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>6301.105</v>
       </c>
       <c r="F3">
-        <v>7243.895</v>
+        <v>6977.518</v>
       </c>
       <c r="G3">
+        <v>266.377</v>
+      </c>
+      <c r="H3">
         <v>13545</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>12301.088</v>
       </c>
       <c r="F4">
-        <v>27853.912</v>
+        <v>27582.371</v>
       </c>
       <c r="G4">
+        <v>271.541</v>
+      </c>
+      <c r="H4">
         <v>40155</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>17037.036</v>
       </c>
       <c r="F5">
-        <v>27819.964</v>
+        <v>27548.139</v>
       </c>
       <c r="G5">
+        <v>271.825</v>
+      </c>
+      <c r="H5">
         <v>44857</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>16048.226</v>
       </c>
       <c r="F6">
-        <v>27838.774</v>
+        <v>27569.004</v>
       </c>
       <c r="G6">
+        <v>269.77</v>
+      </c>
+      <c r="H6">
         <v>43887</v>
       </c>
     </row>
@@ -7951,13 +8818,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7976,19 +8843,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>15764.99</v>
@@ -7997,21 +8867,24 @@
         <v>5113.01</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>20878</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>5719.545</v>
@@ -8020,21 +8893,24 @@
         <v>5114.455</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>10834</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>26564.715</v>
@@ -8043,21 +8919,24 @@
         <v>36457.285</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>63022</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>33978.305</v>
@@ -8066,21 +8945,24 @@
         <v>36506.695</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>70485</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>33582.93</v>
@@ -8089,21 +8971,24 @@
         <v>36483.07</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>70066</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>8576.82</v>
@@ -8112,21 +8997,24 @@
         <v>1922.18</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>10499</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>2668.996</v>
@@ -8135,21 +9023,24 @@
         <v>2462.004</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>5131</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>3848.591</v>
@@ -8158,6 +9049,9 @@
         <v>3451.409</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>7300</v>
       </c>
     </row>

--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch5/anyimplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch5/anyimplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="158">
   <si>
     <t>Shape1</t>
   </si>
@@ -2880,13 +2880,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
@@ -2900,10 +2900,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2914,16 +2917,19 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>31312.867</v>
+        <v>31013.372</v>
       </c>
       <c r="E2">
         <v>8373.133</v>
       </c>
       <c r="F2">
+        <v>299.495</v>
+      </c>
+      <c r="G2">
         <v>39686</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2934,16 +2940,19 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>85047.75900000002</v>
+        <v>84459.88700000002</v>
       </c>
       <c r="E3">
         <v>434541.241</v>
       </c>
       <c r="F3">
+        <v>587.8720000000001</v>
+      </c>
+      <c r="G3">
         <v>519589</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2954,16 +2963,19 @@
         <v>159</v>
       </c>
       <c r="D4">
-        <v>1202943.3585</v>
+        <v>1138670.8545</v>
       </c>
       <c r="E4">
         <v>1157527.6415</v>
       </c>
       <c r="F4">
+        <v>64272.50399999999</v>
+      </c>
+      <c r="G4">
         <v>2360471</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2974,16 +2986,19 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>27079.433</v>
+        <v>26882.56</v>
       </c>
       <c r="E5">
         <v>1161.567</v>
       </c>
       <c r="F5">
+        <v>196.873</v>
+      </c>
+      <c r="G5">
         <v>28241</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3000,10 +3015,13 @@
         <v>4397.131</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>26570</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3014,16 +3032,19 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>169329.873</v>
+        <v>169137.398</v>
       </c>
       <c r="E7">
         <v>137940.127</v>
       </c>
       <c r="F7">
+        <v>192.475</v>
+      </c>
+      <c r="G7">
         <v>307270</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3034,16 +3055,19 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>198609.96</v>
+        <v>171716.359</v>
       </c>
       <c r="E8">
         <v>657065.04</v>
       </c>
       <c r="F8">
+        <v>26893.601</v>
+      </c>
+      <c r="G8">
         <v>855675</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3054,16 +3078,19 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>72940.796</v>
+        <v>71410.375</v>
       </c>
       <c r="E9">
         <v>96651.204</v>
       </c>
       <c r="F9">
+        <v>1530.421</v>
+      </c>
+      <c r="G9">
         <v>169592</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3080,10 +3107,13 @@
         <v>127510.108</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>258215</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3094,16 +3124,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>624403.9879999999</v>
+        <v>571733.943</v>
       </c>
       <c r="E11">
         <v>931773.0120000001</v>
       </c>
       <c r="F11">
+        <v>52670.04500000001</v>
+      </c>
+      <c r="G11">
         <v>1556177</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3114,16 +3147,19 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>468407.769</v>
+        <v>403938.697</v>
       </c>
       <c r="E12">
         <v>340975.231</v>
       </c>
       <c r="F12">
+        <v>64469.07199999999</v>
+      </c>
+      <c r="G12">
         <v>809383</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3134,16 +3170,19 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>885792.2499999999</v>
+        <v>757515.3459999999</v>
       </c>
       <c r="E13">
         <v>683925.7500000001</v>
       </c>
       <c r="F13">
+        <v>128276.904</v>
+      </c>
+      <c r="G13">
         <v>1569718</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3160,10 +3199,13 @@
         <v>1302.078</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>39176</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3180,10 +3222,13 @@
         <v>35003.325</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>165768</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3200,6 +3245,9 @@
         <v>310739.117</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>319074</v>
       </c>
     </row>
